--- a/REGULAR/RE-ENCODE/PAYAD, ALEXANDER.xlsx
+++ b/REGULAR/RE-ENCODE/PAYAD, ALEXANDER.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBD9B43-A729-4C5B-A373-6A67AB827098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -265,12 +264,18 @@
   </si>
   <si>
     <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>5/11,12,15-17/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -956,25 +961,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1281,34 +1286,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A72" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <pane ySplit="4050" topLeftCell="A70" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1329,7 +1334,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1347,7 +1352,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1358,7 +1363,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="52" t="s">
+        <v>77</v>
+      </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -1367,7 +1374,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1375,7 +1382,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1388,7 +1395,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1405,7 +1412,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1449,7 +1456,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>261.19399999999996</v>
+        <v>258.69399999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1459,12 +1466,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>377.09</v>
+        <v>379.59</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1486,7 +1493,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1512,7 +1519,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1532,7 +1539,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1552,7 +1559,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1576,7 +1583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -1595,7 +1602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
@@ -1621,7 +1628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -1641,7 +1648,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -1661,7 +1668,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43313</v>
       </c>
@@ -1681,7 +1688,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -1707,7 +1714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -1727,7 +1734,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -1747,7 +1754,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -1767,7 +1774,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>54</v>
       </c>
@@ -1785,7 +1792,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -1805,7 +1812,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -1831,7 +1838,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>45</v>
@@ -1850,7 +1857,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43525</v>
       </c>
@@ -1870,7 +1877,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43556</v>
       </c>
@@ -1890,7 +1897,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43586</v>
       </c>
@@ -1910,7 +1917,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43617</v>
       </c>
@@ -1936,7 +1943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>48</v>
@@ -1955,7 +1962,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>56</v>
@@ -1972,7 +1979,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43647</v>
       </c>
@@ -1992,7 +1999,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43678</v>
       </c>
@@ -2012,7 +2019,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43709</v>
       </c>
@@ -2032,7 +2039,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43739</v>
       </c>
@@ -2052,7 +2059,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43770</v>
       </c>
@@ -2072,7 +2079,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43800</v>
       </c>
@@ -2092,7 +2099,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>60</v>
       </c>
@@ -2110,7 +2117,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43831</v>
       </c>
@@ -2130,7 +2137,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43862</v>
       </c>
@@ -2150,7 +2157,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43891</v>
       </c>
@@ -2170,7 +2177,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43922</v>
       </c>
@@ -2190,7 +2197,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43952</v>
       </c>
@@ -2210,7 +2217,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43983</v>
       </c>
@@ -2230,7 +2237,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44013</v>
       </c>
@@ -2250,7 +2257,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44044</v>
       </c>
@@ -2270,7 +2277,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -2290,7 +2297,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -2310,7 +2317,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44136</v>
       </c>
@@ -2336,7 +2343,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>48</v>
@@ -2355,7 +2362,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44166</v>
       </c>
@@ -2375,7 +2382,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
         <v>64</v>
       </c>
@@ -2393,7 +2400,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44197</v>
       </c>
@@ -2419,7 +2426,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>65</v>
@@ -2438,7 +2445,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44228</v>
       </c>
@@ -2464,7 +2471,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44256</v>
       </c>
@@ -2484,7 +2491,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44287</v>
       </c>
@@ -2506,7 +2513,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44317</v>
       </c>
@@ -2526,7 +2533,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44348</v>
       </c>
@@ -2546,7 +2553,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44378</v>
       </c>
@@ -2566,7 +2573,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44409</v>
       </c>
@@ -2586,7 +2593,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44440</v>
       </c>
@@ -2606,7 +2613,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44470</v>
       </c>
@@ -2626,7 +2633,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44501</v>
       </c>
@@ -2646,7 +2653,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44531</v>
       </c>
@@ -2666,7 +2673,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>71</v>
       </c>
@@ -2684,7 +2691,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44562</v>
       </c>
@@ -2704,7 +2711,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44593</v>
       </c>
@@ -2724,7 +2731,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44621</v>
       </c>
@@ -2748,7 +2755,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44652</v>
       </c>
@@ -2768,7 +2775,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44682</v>
       </c>
@@ -2794,7 +2801,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44713</v>
       </c>
@@ -2814,7 +2821,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44743</v>
       </c>
@@ -2834,7 +2841,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44774</v>
       </c>
@@ -2854,7 +2861,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44805</v>
       </c>
@@ -2874,7 +2881,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44835</v>
       </c>
@@ -2894,7 +2901,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44866</v>
       </c>
@@ -2914,7 +2921,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44896</v>
       </c>
@@ -2940,7 +2947,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
         <v>74</v>
       </c>
@@ -2958,7 +2965,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44927</v>
       </c>
@@ -2978,7 +2985,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44958</v>
       </c>
@@ -2998,43 +3005,53 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44986</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45017</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="39"/>
+      <c r="B85" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D85" s="39">
+        <v>5</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45047</v>
       </c>
@@ -3052,7 +3069,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45078</v>
       </c>
@@ -3070,7 +3087,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45108</v>
       </c>
@@ -3088,7 +3105,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45139</v>
       </c>
@@ -3106,7 +3123,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45170</v>
       </c>
@@ -3124,7 +3141,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45200</v>
       </c>
@@ -3142,7 +3159,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45231</v>
       </c>
@@ -3160,7 +3177,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45261</v>
       </c>
@@ -3178,7 +3195,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45292</v>
       </c>
@@ -3196,7 +3213,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45323</v>
       </c>
@@ -3214,7 +3231,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45352</v>
       </c>
@@ -3232,7 +3249,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45383</v>
       </c>
@@ -3250,7 +3267,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45413</v>
       </c>
@@ -3268,7 +3285,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45444</v>
       </c>
@@ -3286,7 +3303,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45474</v>
       </c>
@@ -3304,7 +3321,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45505</v>
       </c>
@@ -3322,7 +3339,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45536</v>
       </c>
@@ -3340,7 +3357,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45566</v>
       </c>
@@ -3358,7 +3375,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45597</v>
       </c>
@@ -3376,7 +3393,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45627</v>
       </c>
@@ -3394,7 +3411,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45658</v>
       </c>
@@ -3412,7 +3429,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45689</v>
       </c>
@@ -3430,7 +3447,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45717</v>
       </c>
@@ -3448,7 +3465,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45748</v>
       </c>
@@ -3466,7 +3483,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45778</v>
       </c>
@@ -3484,7 +3501,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45809</v>
       </c>
@@ -3502,7 +3519,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45839</v>
       </c>
@@ -3520,7 +3537,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45870</v>
       </c>
@@ -3538,7 +3555,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45901</v>
       </c>
@@ -3556,7 +3573,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45931</v>
       </c>
@@ -3574,7 +3591,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45962</v>
       </c>
@@ -3592,7 +3609,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45992</v>
       </c>
@@ -3610,7 +3627,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>46023</v>
       </c>
@@ -3628,7 +3645,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>46054</v>
       </c>
@@ -3646,7 +3663,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>46082</v>
       </c>
@@ -3664,7 +3681,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>46113</v>
       </c>
@@ -3682,7 +3699,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3698,7 +3715,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3714,7 +3731,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3730,7 +3747,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3746,7 +3763,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3762,7 +3779,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3778,7 +3795,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3794,7 +3811,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3810,7 +3827,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3826,7 +3843,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3842,7 +3859,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3858,7 +3875,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -3874,7 +3891,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -3890,7 +3907,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -3906,7 +3923,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -3922,7 +3939,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41"/>
       <c r="B137" s="15"/>
       <c r="C137" s="42"/>
@@ -3953,10 +3970,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3979,28 +3996,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4013,7 +4030,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4042,7 +4059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>225.69399999999999</v>
       </c>
@@ -4066,17 +4083,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4097,7 +4114,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4124,7 +4141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4150,7 +4167,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4176,7 +4193,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4202,7 +4219,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4228,7 +4245,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4254,7 +4271,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4280,7 +4297,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4306,7 +4323,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4326,7 +4343,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4346,7 +4363,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4366,7 +4383,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4387,7 +4404,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4408,7 +4425,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4429,7 +4446,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4450,7 +4467,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4471,7 +4488,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4492,7 +4509,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4513,7 +4530,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4534,7 +4551,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4555,7 +4572,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4576,7 +4593,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4597,7 +4614,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4618,7 +4635,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4639,7 +4656,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4660,7 +4677,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4681,7 +4698,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4702,7 +4719,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4723,7 +4740,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4744,7 +4761,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4765,7 +4782,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4786,7 +4803,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4795,7 +4812,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4804,7 +4821,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4813,7 +4830,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4822,7 +4839,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4831,7 +4848,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4840,7 +4857,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4849,7 +4866,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4858,7 +4875,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4867,7 +4884,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4876,7 +4893,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4885,7 +4902,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4894,7 +4911,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4903,7 +4920,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4912,7 +4929,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4921,7 +4938,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4930,7 +4947,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4939,7 +4956,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4948,7 +4965,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4957,7 +4974,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4966,7 +4983,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4975,7 +4992,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4984,7 +5001,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4993,7 +5010,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5002,7 +5019,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5011,7 +5028,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5020,7 +5037,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5029,7 +5046,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5038,7 +5055,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5047,7 +5064,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/RE-ENCODE/PAYAD, ALEXANDER.xlsx
+++ b/REGULAR/RE-ENCODE/PAYAD, ALEXANDER.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F4FDA0-771B-45F3-9EB2-4C9ED9898492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -270,12 +271,15 @@
   </si>
   <si>
     <t>5/11,12,15-17/2023</t>
+  </si>
+  <si>
+    <t>5/31-6/1,2/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -944,7 +948,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -961,25 +965,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1286,34 +1290,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1334,7 +1338,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1352,7 +1356,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1374,7 +1378,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1382,7 +1386,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1395,7 +1399,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1412,7 +1416,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1456,7 +1460,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>258.69399999999996</v>
+        <v>256.94399999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1466,12 +1470,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>379.59</v>
+        <v>380.84</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1493,7 +1497,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1519,7 +1523,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1539,7 +1543,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1559,7 +1563,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -1602,7 +1606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
@@ -1628,7 +1632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -1648,7 +1652,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -1668,7 +1672,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43313</v>
       </c>
@@ -1688,7 +1692,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -1714,7 +1718,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -1734,7 +1738,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -1754,7 +1758,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -1774,7 +1778,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>54</v>
       </c>
@@ -1792,7 +1796,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -1812,7 +1816,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -1838,7 +1842,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>45</v>
@@ -1857,7 +1861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43525</v>
       </c>
@@ -1877,7 +1881,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43556</v>
       </c>
@@ -1897,7 +1901,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43586</v>
       </c>
@@ -1917,7 +1921,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43617</v>
       </c>
@@ -1943,7 +1947,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>48</v>
@@ -1962,7 +1966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>56</v>
@@ -1979,7 +1983,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43647</v>
       </c>
@@ -1999,7 +2003,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43678</v>
       </c>
@@ -2019,7 +2023,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43709</v>
       </c>
@@ -2039,7 +2043,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43739</v>
       </c>
@@ -2059,7 +2063,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43770</v>
       </c>
@@ -2079,7 +2083,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43800</v>
       </c>
@@ -2099,7 +2103,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="48" t="s">
         <v>60</v>
       </c>
@@ -2117,7 +2121,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43831</v>
       </c>
@@ -2137,7 +2141,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43862</v>
       </c>
@@ -2157,7 +2161,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43891</v>
       </c>
@@ -2177,7 +2181,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43922</v>
       </c>
@@ -2197,7 +2201,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43952</v>
       </c>
@@ -2217,7 +2221,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43983</v>
       </c>
@@ -2237,7 +2241,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44013</v>
       </c>
@@ -2257,7 +2261,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44044</v>
       </c>
@@ -2277,7 +2281,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -2297,7 +2301,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -2317,7 +2321,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44136</v>
       </c>
@@ -2343,7 +2347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>48</v>
@@ -2362,7 +2366,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44166</v>
       </c>
@@ -2382,7 +2386,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="48" t="s">
         <v>64</v>
       </c>
@@ -2400,7 +2404,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44197</v>
       </c>
@@ -2426,7 +2430,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>65</v>
@@ -2445,7 +2449,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44228</v>
       </c>
@@ -2471,7 +2475,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44256</v>
       </c>
@@ -2491,7 +2495,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44287</v>
       </c>
@@ -2513,7 +2517,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44317</v>
       </c>
@@ -2533,7 +2537,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44348</v>
       </c>
@@ -2553,7 +2557,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44378</v>
       </c>
@@ -2573,7 +2577,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44409</v>
       </c>
@@ -2593,7 +2597,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44440</v>
       </c>
@@ -2613,7 +2617,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44470</v>
       </c>
@@ -2633,7 +2637,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44501</v>
       </c>
@@ -2653,7 +2657,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44531</v>
       </c>
@@ -2673,7 +2677,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="48" t="s">
         <v>71</v>
       </c>
@@ -2691,7 +2695,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44562</v>
       </c>
@@ -2711,7 +2715,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44593</v>
       </c>
@@ -2731,7 +2735,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44621</v>
       </c>
@@ -2755,7 +2759,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44652</v>
       </c>
@@ -2775,7 +2779,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44682</v>
       </c>
@@ -2801,7 +2805,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44713</v>
       </c>
@@ -2821,7 +2825,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44743</v>
       </c>
@@ -2841,7 +2845,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44774</v>
       </c>
@@ -2861,7 +2865,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44805</v>
       </c>
@@ -2881,7 +2885,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44835</v>
       </c>
@@ -2901,7 +2905,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44866</v>
       </c>
@@ -2921,7 +2925,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44896</v>
       </c>
@@ -2947,7 +2951,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="48" t="s">
         <v>74</v>
       </c>
@@ -2965,7 +2969,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44927</v>
       </c>
@@ -2985,7 +2989,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44958</v>
       </c>
@@ -3005,7 +3009,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44986</v>
       </c>
@@ -3025,7 +3029,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45017</v>
       </c>
@@ -3051,25 +3055,33 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>45047</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="39"/>
+      <c r="B86" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D86" s="39">
+        <v>3</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45078</v>
       </c>
@@ -3087,7 +3099,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45108</v>
       </c>
@@ -3105,7 +3117,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45139</v>
       </c>
@@ -3123,7 +3135,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45170</v>
       </c>
@@ -3141,7 +3153,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45200</v>
       </c>
@@ -3159,7 +3171,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45231</v>
       </c>
@@ -3177,7 +3189,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45261</v>
       </c>
@@ -3195,7 +3207,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45292</v>
       </c>
@@ -3213,7 +3225,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>45323</v>
       </c>
@@ -3231,7 +3243,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>45352</v>
       </c>
@@ -3249,7 +3261,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>45383</v>
       </c>
@@ -3267,7 +3279,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>45413</v>
       </c>
@@ -3285,7 +3297,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>45444</v>
       </c>
@@ -3303,7 +3315,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>45474</v>
       </c>
@@ -3321,7 +3333,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>45505</v>
       </c>
@@ -3339,7 +3351,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>45536</v>
       </c>
@@ -3357,7 +3369,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>45566</v>
       </c>
@@ -3375,7 +3387,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>45597</v>
       </c>
@@ -3393,7 +3405,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>45627</v>
       </c>
@@ -3411,7 +3423,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>45658</v>
       </c>
@@ -3429,7 +3441,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>45689</v>
       </c>
@@ -3447,7 +3459,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>45717</v>
       </c>
@@ -3465,7 +3477,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45748</v>
       </c>
@@ -3483,7 +3495,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45778</v>
       </c>
@@ -3501,7 +3513,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45809</v>
       </c>
@@ -3519,7 +3531,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45839</v>
       </c>
@@ -3537,7 +3549,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>45870</v>
       </c>
@@ -3555,7 +3567,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>45901</v>
       </c>
@@ -3573,7 +3585,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>45931</v>
       </c>
@@ -3591,7 +3603,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>45962</v>
       </c>
@@ -3609,7 +3621,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>45992</v>
       </c>
@@ -3627,7 +3639,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>46023</v>
       </c>
@@ -3645,7 +3657,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>46054</v>
       </c>
@@ -3663,7 +3675,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>46082</v>
       </c>
@@ -3681,7 +3693,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>46113</v>
       </c>
@@ -3699,7 +3711,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3715,7 +3727,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3731,7 +3743,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3747,7 +3759,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3763,7 +3775,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3779,7 +3791,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3795,7 +3807,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3811,7 +3823,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3827,7 +3839,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3843,7 +3855,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3859,7 +3871,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3875,7 +3887,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -3891,7 +3903,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -3907,7 +3919,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -3923,7 +3935,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -3939,7 +3951,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41"/>
       <c r="B137" s="15"/>
       <c r="C137" s="42"/>
@@ -3970,10 +3982,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3996,28 +4008,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4030,7 +4042,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4059,7 +4071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>225.69399999999999</v>
       </c>
@@ -4083,17 +4095,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4114,7 +4126,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4141,7 +4153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4167,7 +4179,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4193,7 +4205,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4219,7 +4231,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4245,7 +4257,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4271,7 +4283,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4297,7 +4309,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4323,7 +4335,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4343,7 +4355,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4363,7 +4375,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4383,7 +4395,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4404,7 +4416,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4425,7 +4437,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4446,7 +4458,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4467,7 +4479,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4488,7 +4500,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4509,7 +4521,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4530,7 +4542,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4551,7 +4563,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4572,7 +4584,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4593,7 +4605,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4614,7 +4626,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4635,7 +4647,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4656,7 +4668,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4677,7 +4689,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4698,7 +4710,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4719,7 +4731,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4740,7 +4752,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4761,7 +4773,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4782,7 +4794,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4803,7 +4815,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4812,7 +4824,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4821,7 +4833,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4830,7 +4842,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4839,7 +4851,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4848,7 +4860,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4857,7 +4869,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4866,7 +4878,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4875,7 +4887,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4884,7 +4896,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4893,7 +4905,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4902,7 +4914,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4911,7 +4923,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4920,7 +4932,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4929,7 +4941,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4938,7 +4950,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4947,7 +4959,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4956,7 +4968,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4965,7 +4977,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4974,7 +4986,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4983,7 +4995,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4992,7 +5004,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5001,7 +5013,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5010,7 +5022,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5019,7 +5031,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5028,7 +5040,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5037,7 +5049,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5046,7 +5058,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5055,7 +5067,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5064,7 +5076,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
